--- a/sample/interview.xlsx
+++ b/sample/interview.xlsx
@@ -1,21 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26311"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yo/Documents/work/z_rush_etc/node-xlsx-json/sample/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="270" yWindow="570" windowWidth="24615" windowHeight="18840"/>
+    <workbookView xWindow="4580" yWindow="2360" windowWidth="24620" windowHeight="18840"/>
   </bookViews>
   <sheets>
     <sheet name="interview" sheetId="1" r:id="rId1"/>
     <sheet name="tags" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="54">
   <si>
     <t>type</t>
   </si>
@@ -173,6 +183,12 @@
   </si>
   <si>
     <t>none</t>
+  </si>
+  <si>
+    <t>_desc</t>
+  </si>
+  <si>
+    <t>for start</t>
   </si>
 </sst>
 </file>
@@ -278,7 +294,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -313,7 +329,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -525,17 +541,17 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="14.28515625" customWidth="1"/>
-    <col min="3" max="3" width="41.85546875" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="1" max="2" width="14.33203125" customWidth="1"/>
+    <col min="3" max="3" width="41.83203125" customWidth="1"/>
+    <col min="4" max="4" width="14.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -548,10 +564,12 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1"/>
+      <c r="E1" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>4</v>
@@ -562,10 +580,12 @@
       <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="1"/>
+      <c r="E2" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>7</v>
@@ -579,7 +599,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>9</v>
@@ -591,7 +611,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>11</v>
@@ -603,7 +623,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
         <v>13</v>
@@ -615,7 +635,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
         <v>15</v>
@@ -629,7 +649,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
@@ -639,7 +659,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
         <v>20</v>
@@ -651,7 +671,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
         <v>22</v>
@@ -663,7 +683,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
         <v>24</v>
@@ -675,7 +695,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
         <v>26</v>
@@ -687,7 +707,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
         <v>28</v>
@@ -699,7 +719,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
         <v>30</v>
@@ -711,7 +731,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
         <v>32</v>
@@ -723,7 +743,7 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>34</v>
       </c>
@@ -732,7 +752,7 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
@@ -743,7 +763,7 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
@@ -752,7 +772,7 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
         <v>36</v>
@@ -764,7 +784,7 @@
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -772,7 +792,7 @@
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -780,7 +800,7 @@
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -788,7 +808,7 @@
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -807,15 +827,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" customWidth="1"/>
+    <col min="3" max="3" width="13.5" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>38</v>
       </c>
@@ -831,7 +851,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>40</v>
       </c>
@@ -845,7 +865,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>40</v>
       </c>
@@ -859,7 +879,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>40</v>
       </c>
@@ -873,7 +893,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
@@ -887,7 +907,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
@@ -901,7 +921,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
@@ -915,7 +935,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -929,7 +949,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -943,7 +963,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -951,7 +971,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -959,7 +979,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -967,7 +987,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -975,7 +995,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -983,7 +1003,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -991,7 +1011,7 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -999,7 +1019,7 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1007,7 +1027,7 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1015,7 +1035,7 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1023,7 +1043,7 @@
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
